--- a/kolk_esm2.xlsx
+++ b/kolk_esm2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423D159E-77AC-439B-B87D-E2644CA5E1EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406F8C7B-2D06-41A3-B655-FAE56CFD22B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="738" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -4773,7 +4773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C256"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="B256" sqref="B256"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -11388,7 +11390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C332"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="B332" sqref="B332"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -15090,7 +15094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C731"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -23155,7 +23161,7 @@
   <dimension ref="A1:D1077"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1054" sqref="R1054"/>
+      <selection activeCell="S1054" sqref="S1054"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -54455,7 +54461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D682"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>

--- a/kolk_esm2.xlsx
+++ b/kolk_esm2.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406F8C7B-2D06-41A3-B655-FAE56CFD22B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="738" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -299,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -499,25 +498,25 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Accent 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Accent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Accent 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Accent" xfId="7"/>
+    <cellStyle name="Accent 1" xfId="8"/>
+    <cellStyle name="Accent 2" xfId="9"/>
+    <cellStyle name="Accent 3" xfId="10"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Footnote" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Error" xfId="11"/>
+    <cellStyle name="Footnote" xfId="12"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading" xfId="13"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Hyperlink" xfId="14"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Result" xfId="15"/>
+    <cellStyle name="Status" xfId="16"/>
+    <cellStyle name="Text" xfId="17"/>
+    <cellStyle name="Warning" xfId="18"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -555,92 +554,92 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__3" displayName="__Anonymous_Sheet_DB__3" ref="A1:D1048576" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__3" displayName="__Anonymous_Sheet_DB__3" ref="A1:D1048576" totalsRowShown="0">
   <sortState ref="A3:D1048576">
     <sortCondition ref="B2:B1048576"/>
     <sortCondition ref="A2:A1048576"/>
     <sortCondition ref="D2:D1048576"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="IDbirthYear"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="gender"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="mean_children" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="type" dataDxfId="5"/>
+    <tableColumn id="1" name="IDbirthYear"/>
+    <tableColumn id="2" name="gender"/>
+    <tableColumn id="3" name="mean_children" dataDxfId="6"/>
+    <tableColumn id="4" name="type" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="__Anonymous_Sheet_DB__4" displayName="__Anonymous_Sheet_DB__4" ref="A1:C1048576" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="__Anonymous_Sheet_DB__4" displayName="__Anonymous_Sheet_DB__4" ref="A1:C1048576" totalsRowShown="0">
   <sortState ref="A3:C1048576">
     <sortCondition ref="A2:A1048576"/>
     <sortCondition ref="C2:C1048576"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="IDbirthYear"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="mean_kin" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="type"/>
+    <tableColumn id="1" name="IDbirthYear"/>
+    <tableColumn id="2" name="mean_kin" dataDxfId="4"/>
+    <tableColumn id="3" name="type"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="__Anonymous_Sheet_DB__5" displayName="__Anonymous_Sheet_DB__5" ref="A1:C1048576" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="__Anonymous_Sheet_DB__5" displayName="__Anonymous_Sheet_DB__5" ref="A1:C1048576" totalsRowShown="0">
   <sortState ref="A3:C1048576">
     <sortCondition ref="A2:A1048576"/>
     <sortCondition ref="C2:C1048576"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="IDbirthYear"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="mean_siblings" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="type"/>
+    <tableColumn id="1" name="IDbirthYear"/>
+    <tableColumn id="2" name="mean_siblings" dataDxfId="3"/>
+    <tableColumn id="3" name="type"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="__Anonymous_Sheet_DB__7" displayName="__Anonymous_Sheet_DB__7" ref="A1:C1048576" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="__Anonymous_Sheet_DB__7" displayName="__Anonymous_Sheet_DB__7" ref="A1:C1048576" totalsRowShown="0">
   <sortState ref="A3:C1048576">
     <sortCondition ref="A2:A1048576"/>
     <sortCondition ref="C2:C1048576"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="IDbirthYear"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="mean_cousins" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="type"/>
+    <tableColumn id="1" name="IDbirthYear"/>
+    <tableColumn id="2" name="mean_cousins" dataDxfId="2"/>
+    <tableColumn id="3" name="type"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="__Anonymous_Sheet_DB__10" displayName="__Anonymous_Sheet_DB__10" ref="A1:C341" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="__Anonymous_Sheet_DB__10" displayName="__Anonymous_Sheet_DB__10" ref="A1:C341" totalsRowShown="0">
   <sortState ref="A3:C341">
     <sortCondition ref="A2:A341"/>
     <sortCondition ref="C2:C341"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="IDbirthYear"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="mean_kin" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="type"/>
+    <tableColumn id="1" name="IDbirthYear"/>
+    <tableColumn id="2" name="mean_kin" dataDxfId="1"/>
+    <tableColumn id="3" name="type"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="__Anonymous_Sheet_DB__11" displayName="__Anonymous_Sheet_DB__11" ref="A1:C1048576" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="__Anonymous_Sheet_DB__11" displayName="__Anonymous_Sheet_DB__11" ref="A1:C1048576" totalsRowShown="0">
   <sortState ref="A3:C1048576">
     <sortCondition ref="A2:A1048576"/>
     <sortCondition ref="C2:C1048576"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="IDbirthYear"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="mean_kin" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="type"/>
+    <tableColumn id="1" name="IDbirthYear"/>
+    <tableColumn id="2" name="mean_kin" dataDxfId="0"/>
+    <tableColumn id="3" name="type"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -942,16 +941,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="13">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -993,15 +992,15 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C341"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4770,16 +4769,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C256"/>
   <sheetViews>
-    <sheetView topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="B256" sqref="B256"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7610,16 +7607,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C341"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11387,18 +11384,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C332"/>
   <sheetViews>
-    <sheetView topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="B332" sqref="B332"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -15067,15 +15062,15 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15091,17 +15086,15 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C731"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23157,19 +23150,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1077"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S1054" sqref="S1054"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -38261,20 +38252,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F265"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="4.54296875" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -42072,17 +42063,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D883"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -54458,16 +54449,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D682"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="18" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -64033,15 +64024,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C431"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -68800,16 +68791,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C345"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -72621,16 +72612,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C603"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -79277,15 +79268,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C545"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="3" customWidth="1"/>
+    <col min="1" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
